--- a/RESULTADOS_PORTATIL/OPENCL/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
+++ b/RESULTADOS_PORTATIL/OPENCL/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/COMPARACION FILTROS/resultados.xlsx
@@ -409,13 +409,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.00032901</v>
+        <v>0.0007445310000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.000792603</v>
+        <v>0.001390624</v>
       </c>
       <c r="D2" s="1">
-        <v>0.000802187</v>
+        <v>0.000505364</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -423,13 +423,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0008880720000000001</v>
+        <v>0.00142875</v>
       </c>
       <c r="C3" s="1">
-        <v>0.001093905</v>
+        <v>0.001212864</v>
       </c>
       <c r="D3" s="1">
-        <v>0.000545259</v>
+        <v>0.00061901</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.00095677</v>
+        <v>0.001081562</v>
       </c>
       <c r="C4" s="1">
-        <v>0.001679166</v>
+        <v>0.001421874</v>
       </c>
       <c r="D4" s="1">
-        <v>0.001316561</v>
+        <v>0.000798958</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.001430364</v>
+        <v>0.001670885</v>
       </c>
       <c r="C5" s="1">
-        <v>0.001947134</v>
+        <v>0.001773489</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0009121340000000001</v>
+        <v>0.000986614</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.002590885</v>
+        <v>0.001739895</v>
       </c>
       <c r="C6" s="1">
-        <v>0.002835572</v>
+        <v>0.001967447</v>
       </c>
       <c r="D6" s="1">
-        <v>0.001139009</v>
+        <v>0.001825885</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -479,13 +479,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.002159895</v>
+        <v>0.002591666</v>
       </c>
       <c r="C7" s="1">
-        <v>0.002444583</v>
+        <v>0.002565884</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000936093</v>
+        <v>0.001169374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -493,13 +493,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.003384635</v>
+        <v>0.003580052</v>
       </c>
       <c r="C8" s="1">
-        <v>0.003089009</v>
+        <v>0.00259927</v>
       </c>
       <c r="D8" s="1">
-        <v>0.001450728</v>
+        <v>0.00104703</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.004053541</v>
+        <v>0.004122656000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>0.002772968</v>
+        <v>0.002857447</v>
       </c>
       <c r="D9" s="1">
-        <v>0.001177395</v>
+        <v>0.001477759</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -521,13 +521,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.003816458</v>
+        <v>0.003380833</v>
       </c>
       <c r="C10" s="1">
-        <v>0.002963384</v>
+        <v>0.003015311000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>0.001144009</v>
+        <v>0.001480728</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -535,13 +535,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.003947187</v>
+        <v>0.003997239000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>0.004152395000000001</v>
+        <v>0.003713176</v>
       </c>
       <c r="D11" s="1">
-        <v>0.001514947</v>
+        <v>0.001105155</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.00545401</v>
+        <v>0.005106458</v>
       </c>
       <c r="C12" s="1">
-        <v>0.003893801</v>
+        <v>0.003738957</v>
       </c>
       <c r="D12" s="1">
-        <v>0.001874114</v>
+        <v>0.001267238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -563,13 +563,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.008004583000000001</v>
+        <v>0.00747026</v>
       </c>
       <c r="C13" s="1">
-        <v>0.004058436</v>
+        <v>0.004297968</v>
       </c>
       <c r="D13" s="1">
-        <v>0.001497187</v>
+        <v>0.001379843</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.007969687000000001</v>
+        <v>0.007337552000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>0.004073437</v>
+        <v>0.004506301000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>0.001464322</v>
+        <v>0.001429009</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -591,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.010859635</v>
+        <v>0.010473281</v>
       </c>
       <c r="C15" s="1">
-        <v>0.00490151</v>
+        <v>0.00479651</v>
       </c>
       <c r="D15" s="1">
-        <v>0.001702759</v>
+        <v>0.002288853</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -605,13 +605,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.010345364</v>
+        <v>0.010024322</v>
       </c>
       <c r="C16" s="1">
-        <v>0.005404374</v>
+        <v>0.006929009</v>
       </c>
       <c r="D16" s="1">
-        <v>0.001557863</v>
+        <v>0.001764582</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -619,13 +619,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.018204062</v>
+        <v>0.019839427</v>
       </c>
       <c r="C17" s="1">
-        <v>0.005507134</v>
+        <v>0.006105155</v>
       </c>
       <c r="D17" s="1">
-        <v>0.001780259</v>
+        <v>0.001728957</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -633,13 +633,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.018973072</v>
+        <v>0.021104895</v>
       </c>
       <c r="C18" s="1">
-        <v>0.005494894</v>
+        <v>0.005569061</v>
       </c>
       <c r="D18" s="1">
-        <v>0.001985311</v>
+        <v>0.001624791</v>
       </c>
     </row>
   </sheetData>
